--- a/biology/Médecine/Échelle_d'évaluation_de_la_douleur/Échelle_d'évaluation_de_la_douleur.xlsx
+++ b/biology/Médecine/Échelle_d'évaluation_de_la_douleur/Échelle_d'évaluation_de_la_douleur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les échelles d'évaluation de la douleur sont des outils pour aider à identifier et à quantifier la douleur d'autrui, principalement utilisées en médecine.
 L'auto-évaluation est une méthode centrale ; ainsi, la personne est amenée à situer sa propre douleur sur une échelle.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le milieu médical, l'évaluation de la douleur permet une bonne prise en charge du patient, et est notamment nécessaire pour proposer une thérapeutique adaptée à l'intensité de la douleur.
 </t>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,17 +558,11 @@
           <t>Méthodes d'auto-évaluation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'auto-évaluation n'est pas qu'une évaluation de la douleur, c'est également une manière de communiquer avec l'équipe médicale. Dans le cas de douleurs chroniques notamment, la cotation de la douleur n'indique pas uniquement la douleur ressentie, mais globalement l'altération de la qualité de vie et la détresse émotionnelle[1].
-Échelle numérique (EN)
-Le système le plus simple et le plus couramment utilisé est l'échelle numérique (EN) qui consiste à demander au patient de noter sa douleur de 0 à 10, 0 étant l'absence de douleur et 10 la douleur maximale imaginable[2],[3].
-Échelle visuelle analogique (EVA)
-L'échelle visuelle analogique ou EVA consiste à présenter une réglette graduée et à demander au patient de positionner un curseur, la position à gauche étant l'absence de douleur et la position à droite une douleur insupportable. Côté praticien, la réglette est graduée de 0 à 10 cm, cependant on donne la valeur désignée en mm. Ainsi, 10 mm désigne une légère incommodation et 100 mm une douleur insupportable. Une estimation supérieure à 50 mm est en général considérée comme étant une douleur importante devant être prise en compte spécifiquement (c'est-à-dire qu'il faut prendre en compte également la douleur et pas seulement le traumatisme et la maladie)[4].
-Échelle verbale simple (EVS)
-L'« échelle verbale simple » (EVS) est utilisée : une série d'adjectifs est proposée au patient pour qualifier la douleur (absente &gt; faible &gt; modérée &gt; intense &gt; extrêmement intense)[5], qui est ensuite convertie en une valeur numérique (de 0 pour absente à 4 pour la douleur maximale).
-Échelle verbale relative (EVR)
-Dans certains cas, l'« échelle verbale relative » (EVR) est utilisée. Le principe est similaire à l'EVS, mais les différents types de douleur et leurs répercussions sont distingués et quantifiés comme notamment : fourmillements, décharges électriques, élancement, coup de poignard, douleur énervante et épuisante[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'auto-évaluation n'est pas qu'une évaluation de la douleur, c'est également une manière de communiquer avec l'équipe médicale. Dans le cas de douleurs chroniques notamment, la cotation de la douleur n'indique pas uniquement la douleur ressentie, mais globalement l'altération de la qualité de vie et la détresse émotionnelle.
 </t>
         </is>
       </c>
@@ -565,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,48 +588,269 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Méthodes d'auto-évaluation</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Échelle numérique (EN)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le système le plus simple et le plus couramment utilisé est l'échelle numérique (EN) qui consiste à demander au patient de noter sa douleur de 0 à 10, 0 étant l'absence de douleur et 10 la douleur maximale imaginable,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Méthodes d'auto-évaluation</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Échelle visuelle analogique (EVA)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle visuelle analogique ou EVA consiste à présenter une réglette graduée et à demander au patient de positionner un curseur, la position à gauche étant l'absence de douleur et la position à droite une douleur insupportable. Côté praticien, la réglette est graduée de 0 à 10 cm, cependant on donne la valeur désignée en mm. Ainsi, 10 mm désigne une légère incommodation et 100 mm une douleur insupportable. Une estimation supérieure à 50 mm est en général considérée comme étant une douleur importante devant être prise en compte spécifiquement (c'est-à-dire qu'il faut prendre en compte également la douleur et pas seulement le traumatisme et la maladie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Méthodes d'auto-évaluation</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Échelle verbale simple (EVS)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'« échelle verbale simple » (EVS) est utilisée : une série d'adjectifs est proposée au patient pour qualifier la douleur (absente &gt; faible &gt; modérée &gt; intense &gt; extrêmement intense), qui est ensuite convertie en une valeur numérique (de 0 pour absente à 4 pour la douleur maximale).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Méthodes d'auto-évaluation</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Échelle verbale relative (EVR)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans certains cas, l'« échelle verbale relative » (EVR) est utilisée. Le principe est similaire à l'EVS, mais les différents types de douleur et leurs répercussions sont distingués et quantifiés comme notamment : fourmillements, décharges électriques, élancement, coup de poignard, douleur énervante et épuisante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Évaluation de la douleur chez l’enfant</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dans le cas des enfants, les échelles présentées précédemment ne peuvent pas toujours être utilisées. C'est pour cela que des outils spécifiques ont été développés. De plus, lorsque l'enfant ne peut pas auto-évaluer sa douleur, il convient d'utiliser les méthodes d'hétéro-évaluation de la douleur.
-Méthodes d'auto-évaluation
-EVENDOL : échelle d’évaluation de la douleur chez le jeune enfant (&lt; 6 ans)
-Échelle des visages.
-Méthodes d'hétéro-évaluation
-Chez les plus jeunes enfants ainsi que chez les nouveau-nés, il est nécessaire de recourir à des hétéro-évaluations. Des outils ont été mis en place pour observer et tenter de mesurer la douleur.
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans le cas des enfants, les échelles présentées précédemment ne peuvent pas toujours être utilisées. C'est pour cela que des outils spécifiques ont été développés. De plus, lorsque l'enfant ne peut pas auto-évaluer sa douleur, il convient d'utiliser les méthodes d'hétéro-évaluation de la douleur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Évaluation de la douleur chez l’enfant</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Méthodes d'auto-évaluation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>EVENDOL : échelle d’évaluation de la douleur chez le jeune enfant (&lt; 6 ans)
+Échelle des visages.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Évaluation de la douleur chez l’enfant</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Méthodes d'hétéro-évaluation</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Chez les plus jeunes enfants ainsi que chez les nouveau-nés, il est nécessaire de recourir à des hétéro-évaluations. Des outils ont été mis en place pour observer et tenter de mesurer la douleur.
 OPS : échelle d’évaluation de la douleur adaptée aux enfants de moins de 5 ans.
 DAN : échelle d’évaluation de la douleur aiguë du nouveau-né.
 EDIN ou EDINN : L'échelle de douleur et d'inconfort du nouveau-né et du nourrisson.</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Évaluation de la douleur chez l’adulte</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>QDSA : questionnaire multidimensionnel d’évaluation de la douleur de l’adulte
 ALGOPLUS : échelle d’évaluation de la douleur si troubles de la communication verbale
@@ -629,67 +858,71 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Évaluation de la douleur chez la personne âgée</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Échelle Doloplus[7] (est fréquemment utilisée),
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Échelle Doloplus (est fréquemment utilisée),
 DOLOPLUS 2 : échelle d’évaluation comportementale de la douleur chez la personne âgée
-L'échelle comportementale de la douleur chez la personne âgée (ECPA)[8].
+L'échelle comportementale de la douleur chez la personne âgée (ECPA).
 Échelle GARONNE : grille d’évaluation de la douleur du sujet âgé non communicant
 ALGOPLUS : échelle d’évaluation de la douleur si troubles de la communication verbale</t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Échelle_d'évaluation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_d%27%C3%A9valuation_de_la_douleur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Évaluation de la douleur chez les patients polyhandicapés</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des échelles ont été mises au point pour évaluer la douleur chez des patients polyhandicapés, notamment l'échelle San Salvadour[9].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des échelles ont été mises au point pour évaluer la douleur chez des patients polyhandicapés, notamment l'échelle San Salvadour.
 </t>
         </is>
       </c>
